--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Biscoitos amanteigados.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Biscoitos amanteigados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Biscoito Amanteigado Renata 330gr Chocolate</t>
+          <t>Biscoito Aman Renata 330gr Coco</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d4a0ca1-342c-40d0-88a8-8f8784559132.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65a9d68b-38d3-4fa4-af9b-1fea2d893625.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896022204631</t>
         </is>
       </c>
     </row>
@@ -488,7 +498,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biscoito Aman Renata 330gr Coco</t>
+          <t>Biscoito Aman Renata 330gr Leite</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +508,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65a9d68b-38d3-4fa4-af9b-1fea2d893625.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc627a75-79c6-4197-a5b6-337fa6c1816b.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896022204648</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Biscoito Aman Renata 330gr Leite</t>
+          <t>Biscoito Panco 200gr Manteiga</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc627a75-79c6-4197-a5b6-337fa6c1816b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80f582f7-61a2-41c6-86a6-9e06a060a140.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891203058133</t>
         </is>
       </c>
     </row>
@@ -542,125 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bolacha Delícia Manteiga 250g</t>
+          <t>Biscoito Tostines 150g Especiarias Gengibre</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bbc06a3-e84d-4271-9c87-5bb5cdbe8959.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Biscoitos amanteigados</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Biscoito Panco 200gr Manteiga</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80f582f7-61a2-41c6-86a6-9e06a060a140.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Biscoitos amanteigados</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Biscoito Cristal Renata 420g</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>R$ 8,49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab2d8fe0-cd32-416e-96c9-ed1fd390f12d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Biscoitos amanteigados</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Biscoito Tostines 150g Especiarias Gengibre</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Biscoitos amanteigados</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Biscoito Marilan 300g Maizena</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fe12eb05-fcae-4fb4-aabd-200a155a4012.jpg</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891000436110</t>
         </is>
       </c>
     </row>
